--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoDoanhThuKhachHang.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoDoanhThuKhachHang.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Tổng cộng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã khách hàng</t>
   </si>
@@ -142,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -167,9 +164,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -187,12 +181,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,69 +487,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="40" style="9" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="9" customWidth="1"/>
-    <col min="5" max="7" width="21.85546875" style="11" customWidth="1"/>
+    <col min="5" max="7" width="21.85546875" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>8</v>
+      <c r="A1" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -570,7 +558,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -579,7 +567,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -588,7 +576,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -597,7 +585,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -606,7 +594,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -615,7 +603,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -624,7 +612,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -633,7 +621,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -642,7 +630,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -651,7 +639,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -660,7 +648,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -669,7 +657,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -678,7 +666,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -687,7 +675,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -696,7 +684,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -705,7 +693,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -714,7 +702,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -723,7 +711,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -732,7 +720,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -741,7 +729,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -750,7 +738,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -759,7 +747,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -768,33 +756,13 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="18">
-        <f>SUM(E$5:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <f>SUM(F$5:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
-        <f>SUM(G$5:G28)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
